--- a/Budget-July20-Aug05.xlsx
+++ b/Budget-July20-Aug05.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>JPM payday</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>TWC</t>
+  </si>
+  <si>
+    <t>Xiao</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <dimension ref="D4:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -435,10 +438,18 @@
         <v>6039</v>
       </c>
     </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="1">
+        <v>-1400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="15" spans="4:5">
       <c r="D15" s="1">
         <f>SUM(D4:D14)</f>
-        <v>5390</v>
+        <v>3990</v>
       </c>
     </row>
   </sheetData>
